--- a/data/Subset1_WithDialogActs/Introducing Integers_Grade 6.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Introducing Integers_Grade 6.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3531,12 +3531,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3573,12 +3573,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4299,12 +4299,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5215,12 +5215,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5329,12 +5329,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6777,12 +6777,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7081,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7271,12 +7271,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8261,12 +8261,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8413,12 +8413,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8489,12 +8489,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
